--- a/HW1/results/v1/LogisticRegression/bayes/calculationsAndChartsBayes.xlsx
+++ b/HW1/results/v1/LogisticRegression/bayes/calculationsAndChartsBayes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donts\Documents\Files\AutoML\HW1\repo\AutoML\HW1\results\v1\LogisticRegression\bayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00522AD6-67A0-4B6E-B0D2-6E8AE9F53D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E46D01-84F2-422C-879A-77B7CD529E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="4" xr2:uid="{5557167C-0605-4BD0-8448-1B4F42F20281}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="9" xr2:uid="{5557167C-0605-4BD0-8448-1B4F42F20281}"/>
   </bookViews>
   <sheets>
     <sheet name="PhishingWebsites (3)" sheetId="18" r:id="rId1"/>
@@ -27,20 +27,12 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$L$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$L$2:$L$51</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$M$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$M$2:$M$51</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$N$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$N$2:$N$51</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$O$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$O$2:$O$51</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$M$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$M$2:$M$51</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$N$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$N$2:$N$51</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$O$1</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$O$2:$O$51</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$L$2:$L$51</definedName>
     <definedName name="ExternalData_2" localSheetId="3" hidden="1">'elevators (3)'!$A$1:$U$51</definedName>
     <definedName name="ExternalData_3" localSheetId="2" hidden="1">'MagicTelescope (3)'!$A$1:$U$51</definedName>
     <definedName name="ExternalData_4" localSheetId="1" hidden="1">'mozilla4 (3)'!$A$1:$U$51</definedName>
@@ -5759,7 +5751,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -9327,7 +9319,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{705A370E-4116-408D-A9AA-BB5F454E27CB}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="60" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9371,7 +9363,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{69ACB294-AB4B-4675-9923-FFEBC29DCADE}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9448,7 +9440,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91E6CE99-03DE-F9F3-E1BC-9074FE45731A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{559A62EA-22FE-5CD7-1494-19A7CA70B461}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>

--- a/HW1/results/v1/LogisticRegression/bayes/calculationsAndChartsBayes.xlsx
+++ b/HW1/results/v1/LogisticRegression/bayes/calculationsAndChartsBayes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donts\Documents\Files\AutoML\HW1\repo\AutoML\HW1\results\v1\LogisticRegression\bayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E46D01-84F2-422C-879A-77B7CD529E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E7AFB3-7F94-42BD-ACCE-CA6AD06DAB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="9" xr2:uid="{5557167C-0605-4BD0-8448-1B4F42F20281}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="8" xr2:uid="{5557167C-0605-4BD0-8448-1B4F42F20281}"/>
   </bookViews>
   <sheets>
     <sheet name="PhishingWebsites (3)" sheetId="18" r:id="rId1"/>
@@ -931,6 +931,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFA5A5A5"/>
+      <color rgb="FFFFC000"/>
+      <color rgb="FFED7D31"/>
       <color rgb="FF4472C4"/>
     </mruColors>
   </colors>
@@ -1841,7 +1844,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3797,7 +3800,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="4472C4"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5751,7 +5754,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="4472C4"/>
+                <a:srgbClr val="A5A5A5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -9352,7 +9355,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A823BD7F-7B3D-490E-8599-AC852B951D66}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9363,7 +9366,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{69ACB294-AB4B-4675-9923-FFEBC29DCADE}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9440,7 +9443,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{559A62EA-22FE-5CD7-1494-19A7CA70B461}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9E2CA83-C944-1199-9874-01C3290A3EE9}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
